--- a/xlsx/a69_f28_aUPPahuca.xlsx
+++ b/xlsx/a69_f28_aUPPahuca.xlsx
@@ -1311,7 +1311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1328,15 +1328,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1349,6 +1343,11 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1622,7 +1621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1632,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,38 +1725,38 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2244,88 +2243,88 @@
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
     </row>
     <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2594,13 +2593,13 @@
       <c r="H8" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>388</v>
       </c>
       <c r="J8" s="4">
         <v>44991</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="7" t="s">
         <v>337</v>
       </c>
       <c r="L8" s="3">
@@ -2615,10 +2614,10 @@
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="9" t="s">
         <v>390</v>
       </c>
       <c r="R8" s="3"/>
@@ -2674,19 +2673,19 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="11" t="s">
+      <c r="AO8" s="7" t="s">
         <v>373</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AQ8" s="11" t="s">
+      <c r="AQ8" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AR8" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="AS8" s="12" t="s">
+      <c r="AS8" s="8" t="s">
         <v>376</v>
       </c>
       <c r="AT8" s="4">
@@ -2710,10 +2709,10 @@
         <v>377</v>
       </c>
       <c r="BB8" s="3"/>
-      <c r="BC8" s="11" t="s">
+      <c r="BC8" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BD8" s="7" t="s">
         <v>379</v>
       </c>
       <c r="BE8" s="4">
@@ -2722,7 +2721,7 @@
       <c r="BF8" s="4">
         <v>45291</v>
       </c>
-      <c r="BG8" s="14" t="s">
+      <c r="BG8" s="10" t="s">
         <v>391</v>
       </c>
       <c r="BH8" s="3"/>
@@ -2757,7 +2756,7 @@
       <c r="CA8" s="4">
         <v>45026</v>
       </c>
-      <c r="CB8" s="7" t="s">
+      <c r="CB8" s="6" t="s">
         <v>387</v>
       </c>
     </row>
@@ -2839,7 +2838,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,7 +2929,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,13 +2997,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3018,7 +3020,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,10 +3088,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="6" t="s">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3103,7 +3111,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,136 +3179,158 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3314,7 +3344,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,10 +3372,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>261001</v>
       </c>
     </row>

--- a/xlsx/a69_f28_aUPPahuca.xlsx
+++ b/xlsx/a69_f28_aUPPahuca.xlsx
@@ -1283,7 +1283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1306,12 +1306,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1348,6 +1357,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1621,7 +1636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1631,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="CC2" workbookViewId="0">
+      <selection activeCell="CK12" sqref="CK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,8 +1667,8 @@
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="68.5703125" customWidth="1"/>
+    <col min="16" max="16" width="112.85546875" customWidth="1"/>
+    <col min="17" max="17" width="95.5703125" customWidth="1"/>
     <col min="18" max="18" width="59.28515625" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -1741,7 +1756,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -1752,11 +1767,11 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
